--- a/planner/configexport/internal/template.xlsx
+++ b/planner/configexport/internal/template.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23925" windowHeight="12540"/>
+    <workbookView windowWidth="23925" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="有索引" sheetId="1" r:id="rId1"/>
+    <sheet name="无索引" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>配置名称</t>
   </si>
@@ -85,6 +86,12 @@
     <t>sc</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -100,10 +107,13 @@
     <t>b</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>UNConfig</t>
+  </si>
+  <si>
+    <t>字段值</t>
   </si>
 </sst>
 </file>
@@ -719,9 +729,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1079,8 +1092,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1178,10 +1191,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -1192,16 +1205,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1209,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1226,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1243,16 +1256,158 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
+    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="6" max="6" width="49.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
